--- a/biology/Zoologie/Faune_australe_du_Crétacé/Faune_australe_du_Crétacé.xlsx
+++ b/biology/Zoologie/Faune_australe_du_Crétacé/Faune_australe_du_Crétacé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faune_australe_du_Cr%C3%A9tac%C3%A9</t>
+          <t>Faune_australe_du_Crétacé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faune australe du Crétacé était dominée par les dinosaures alors que, à cette période, l'Australie et l'Antarctique ne formaient qu'un seul continent relativement isolé du reste du monde. De nombreux fossiles ont été découverts sur les sites de Dinosaur Cove et de Flat Rocks dans le sud de l'Australie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faune_australe_du_Cr%C3%A9tac%C3%A9</t>
+          <t>Faune_australe_du_Crétacé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Formation des continents</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Autrefois, l'Australie faisait partie du supercontinent Gondwana qui incluait l'ensemble méridional des terres émergées alors que le Laurasia regroupait les terres du Nord.
 Il y a 160 millions d'années (au Jurassique supérieur), le Gondwana commence à se scinder lorsqu'un rift le sépare de l'Inde.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faune_australe_du_Cr%C3%A9tac%C3%A9</t>
+          <t>Faune_australe_du_Crétacé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La température moyenne de la zone australe était plus élevée au Crétacé inférieur qu'elle ne l'est aujourd'hui. Plusieurs méthodes ont été employées pour le déduire.
 La technique qui consiste à évaluer la variation des isotopes d'oxygène dans la roche au cours du temps permet d'évaluer des températures annuelles pour la Baie d'Hudson autour de 0 °C et autour de 8 °C pour Toronto. Les fossiles de mammifères et de dinosaures sont enchâssés dans des roches formées à partir du pergélisol. Cela suggère que la température devait se situer autour de −2 à 3 °C.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faune_australe_du_Cr%C3%A9tac%C3%A9</t>
+          <t>Faune_australe_du_Crétacé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,16 +600,52 @@
           <t>La faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La zone australe connaissait déjà à l'époque, de nombreux animaux endémiques, des amphibiens géants comme les Temnospondyli et Koolasuchus, à l'abri de leurs concurrents crocodiliens qui ne pouvaient pas vivre dans des régions aussi froides.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone australe connaissait déjà à l'époque, de nombreux animaux endémiques, des amphibiens géants comme les Temnospondyli et Koolasuchus, à l'abri de leurs concurrents crocodiliens qui ne pouvaient pas vivre dans des régions aussi froides.
 Des mammifères, y compris des monotrèmes ont été aussi trouvés. Des restes fragmentaires de ptérosaures volants, des dents de plésiosaures (reptiles marins) ont été également trouvées, suggérant qu'ils aient vécu dans des fleuves de l'ancien continent.
 Les fossiles de dinosaure sont rares en Australie, mais le plus grand nombre de fossiles trouvés date du Crétacé, ce sont par exemple des ornithomimosaures ou des ankylosaures. Les Hypsilophodontidae forment le groupe le plus commun et le plus divers découvert jusqu'ici. Ils nous fournissent des informations précieuses quant aux caractéristiques des dinosaures qui vivaient dans ces environnements polaires : ils possédaient de grands yeux, les ouvertures des lobes optiques du crâne étaient aussi agrandies. Ceci indique qu'ils étaient adaptés à la vision de nuit, dans des secteurs où la nuit pouvait durer plusieurs semaines.
 En 1991, des paléontologues ont découvert la première espèce endémique de dinosaure d'Antarctique, le Cryolophosaurus ellioti. Certains estiment que cette faune, habituée à vivre dans le froid et sans lumière aurait pu résister à l'extinction du Crétacé.
-Si les fossiles de Lightning Ridge, en Nouvelle-Galles du Sud suggèrent qu'il y a 110 millions d'années plusieurs espèces de monotrèmes était présents, la communauté scientifique pense qu'aucun marsupial n'y vivait[1]. En effet les fossiles les plus anciens de marsupiaux ne datent que du Paléogène et plus précisément de 55 millions d'années.
-Aves
-dinosaures du crétacé
-Dinosaures sans genre défini
+Si les fossiles de Lightning Ridge, en Nouvelle-Galles du Sud suggèrent qu'il y a 110 millions d'années plusieurs espèces de monotrèmes était présents, la communauté scientifique pense qu'aucun marsupial n'y vivait. En effet les fossiles les plus anciens de marsupiaux ne datent que du Paléogène et plus précisément de 55 millions d'années.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faune_australe_du_Crétacé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_australe_du_Cr%C3%A9tac%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>La faune</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>dinosaures du crétacé</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dinosaures sans genre défini
 Ornithopodes 7, incluant deux Hypsilophodontidae.
 Sauropodes: 7, incluant un possible titanosauridé et deux possibles brachiosauridés.
 Théropodes : 17, incluant des Dromaeosauridae, un possible Caenagnathidae, un possible Thérizinosaures, et deux possibles Ornithomimidae.
